--- a/volatility/src/txt/04_GBPJPY_W.xlsx
+++ b/volatility/src/txt/04_GBPJPY_W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-80" windowWidth="23340" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="-80" windowWidth="19500" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="04_GBPJPY_W.csv" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -75,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -442,7 +446,7 @@
         <f>MEDIAN(H1:H52)</f>
         <v>2.6565000000000083</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <f>I1*5/3</f>
         <v>4.4275000000000135</v>
       </c>

--- a/volatility/src/txt/04_GBPJPY_W.xlsx
+++ b/volatility/src/txt/04_GBPJPY_W.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H2" sqref="H2:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
@@ -440,15 +440,15 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)</f>
-        <v>4.2530000000000143</v>
+        <v>2.695999999999998</v>
       </c>
       <c r="I1">
         <f>MEDIAN(H1:H52)</f>
-        <v>2.6565000000000083</v>
+        <v>2.6814999999999998</v>
       </c>
       <c r="J1" s="2">
         <f>I1*5/3</f>
-        <v>4.4275000000000135</v>
+        <v>4.4691666666666663</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -456,23 +456,23 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C2">
-        <v>148.16300000000001</v>
+        <v>145.297</v>
       </c>
       <c r="D2">
-        <v>148.387</v>
+        <v>146.50800000000001</v>
       </c>
       <c r="E2">
-        <v>144.13399999999999</v>
+        <v>143.81200000000001</v>
       </c>
       <c r="F2">
-        <v>145.14400000000001</v>
+        <v>144.255</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H52" si="0">ABS(D3-E3)</f>
-        <v>5.1510000000000105</v>
+        <v>4.2530000000000143</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -480,23 +480,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C3">
-        <v>144.25</v>
+        <v>148.16300000000001</v>
       </c>
       <c r="D3">
-        <v>148.875</v>
+        <v>148.387</v>
       </c>
       <c r="E3">
-        <v>143.72399999999999</v>
+        <v>144.13399999999999</v>
       </c>
       <c r="F3">
-        <v>148.113</v>
+        <v>145.14400000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>3.9919999999999902</v>
+        <v>5.1510000000000105</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -504,23 +504,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C4">
-        <v>148.14699999999999</v>
+        <v>144.25</v>
       </c>
       <c r="D4">
-        <v>148.309</v>
+        <v>148.875</v>
       </c>
       <c r="E4">
-        <v>144.31700000000001</v>
+        <v>143.72399999999999</v>
       </c>
       <c r="F4">
-        <v>144.65700000000001</v>
+        <v>148.113</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>4.1819999999999879</v>
+        <v>3.9919999999999902</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -528,23 +528,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C5">
-        <v>144.637</v>
+        <v>148.14699999999999</v>
       </c>
       <c r="D5">
-        <v>148.56899999999999</v>
+        <v>148.309</v>
       </c>
       <c r="E5">
-        <v>144.387</v>
+        <v>144.31700000000001</v>
       </c>
       <c r="F5">
-        <v>147.863</v>
+        <v>144.65700000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.570999999999998</v>
+        <v>4.1819999999999879</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -552,23 +552,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C6">
-        <v>142.53899999999999</v>
+        <v>144.637</v>
       </c>
       <c r="D6">
-        <v>145.048</v>
+        <v>148.56899999999999</v>
       </c>
       <c r="E6">
-        <v>142.477</v>
+        <v>144.387</v>
       </c>
       <c r="F6">
-        <v>144.422</v>
+        <v>147.863</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.3259999999999934</v>
+        <v>2.570999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -576,23 +576,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C7">
-        <v>141.976</v>
+        <v>142.53899999999999</v>
       </c>
       <c r="D7">
-        <v>143.334</v>
+        <v>145.048</v>
       </c>
       <c r="E7">
-        <v>141.00800000000001</v>
+        <v>142.477</v>
       </c>
       <c r="F7">
-        <v>142.303</v>
+        <v>144.422</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>3.0450000000000159</v>
+        <v>2.3259999999999934</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -600,23 +600,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C8">
-        <v>143.03700000000001</v>
+        <v>141.976</v>
       </c>
       <c r="D8">
-        <v>144.173</v>
+        <v>143.334</v>
       </c>
       <c r="E8">
-        <v>141.12799999999999</v>
+        <v>141.00800000000001</v>
       </c>
       <c r="F8">
-        <v>141.94900000000001</v>
+        <v>142.303</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.646000000000015</v>
+        <v>3.0450000000000159</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -624,23 +624,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C9">
-        <v>144.38399999999999</v>
+        <v>143.03700000000001</v>
       </c>
       <c r="D9">
-        <v>144.72300000000001</v>
+        <v>144.173</v>
       </c>
       <c r="E9">
-        <v>142.077</v>
+        <v>141.12799999999999</v>
       </c>
       <c r="F9">
-        <v>143.26300000000001</v>
+        <v>141.94900000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>4.2160000000000082</v>
+        <v>2.646000000000015</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -648,23 +648,23 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C10">
-        <v>141.19</v>
+        <v>144.38399999999999</v>
       </c>
       <c r="D10">
-        <v>144.84100000000001</v>
+        <v>144.72300000000001</v>
       </c>
       <c r="E10">
-        <v>140.625</v>
+        <v>142.077</v>
       </c>
       <c r="F10">
-        <v>144.49100000000001</v>
+        <v>143.26300000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>4.8739999999999952</v>
+        <v>4.2160000000000082</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -672,23 +672,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C11">
-        <v>139.47399999999999</v>
+        <v>141.19</v>
       </c>
       <c r="D11">
-        <v>142.214</v>
+        <v>144.84100000000001</v>
       </c>
       <c r="E11">
-        <v>137.34</v>
+        <v>140.625</v>
       </c>
       <c r="F11">
-        <v>141.262</v>
+        <v>144.49100000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.0389999999999873</v>
+        <v>4.8739999999999952</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -696,23 +696,23 @@
         <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C12">
-        <v>138.02000000000001</v>
+        <v>139.47399999999999</v>
       </c>
       <c r="D12">
-        <v>139.48599999999999</v>
+        <v>142.214</v>
       </c>
       <c r="E12">
-        <v>137.447</v>
+        <v>137.34</v>
       </c>
       <c r="F12">
-        <v>139.37299999999999</v>
+        <v>141.262</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>7.1939999999999884</v>
+        <v>2.0389999999999873</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -720,23 +720,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C13">
-        <v>139.96899999999999</v>
+        <v>138.02000000000001</v>
       </c>
       <c r="D13">
-        <v>140.874</v>
+        <v>139.48599999999999</v>
       </c>
       <c r="E13">
-        <v>133.68</v>
+        <v>137.447</v>
       </c>
       <c r="F13">
-        <v>138.05000000000001</v>
+        <v>139.37299999999999</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.4339999999999975</v>
+        <v>7.1939999999999884</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -744,23 +744,23 @@
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C14">
-        <v>140.23699999999999</v>
+        <v>139.96899999999999</v>
       </c>
       <c r="D14">
-        <v>140.93199999999999</v>
+        <v>140.874</v>
       </c>
       <c r="E14">
-        <v>139.49799999999999</v>
+        <v>133.68</v>
       </c>
       <c r="F14">
-        <v>140.029</v>
+        <v>138.05000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>2.9989999999999952</v>
+        <v>1.4339999999999975</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -768,23 +768,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C15">
-        <v>142.78200000000001</v>
+        <v>140.23699999999999</v>
       </c>
       <c r="D15">
-        <v>143.239</v>
+        <v>140.93199999999999</v>
       </c>
       <c r="E15">
-        <v>140.24</v>
+        <v>139.49799999999999</v>
       </c>
       <c r="F15">
-        <v>140.53899999999999</v>
+        <v>140.029</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>2.7599999999999909</v>
+        <v>2.9989999999999952</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -792,23 +792,23 @@
         <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C16">
-        <v>143.024</v>
+        <v>142.78200000000001</v>
       </c>
       <c r="D16">
-        <v>143.934</v>
+        <v>143.239</v>
       </c>
       <c r="E16">
-        <v>141.17400000000001</v>
+        <v>140.24</v>
       </c>
       <c r="F16">
-        <v>142.608</v>
+        <v>140.53899999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>2.6670000000000016</v>
+        <v>2.7599999999999909</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,23 +816,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C17">
-        <v>145.02600000000001</v>
+        <v>143.024</v>
       </c>
       <c r="D17">
-        <v>145.512</v>
+        <v>143.934</v>
       </c>
       <c r="E17">
-        <v>142.845</v>
+        <v>141.17400000000001</v>
       </c>
       <c r="F17">
-        <v>143.56100000000001</v>
+        <v>142.608</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.3230000000000075</v>
+        <v>2.6670000000000016</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -840,23 +840,23 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C18">
-        <v>144.79900000000001</v>
+        <v>145.02600000000001</v>
       </c>
       <c r="D18">
-        <v>145.83799999999999</v>
+        <v>145.512</v>
       </c>
       <c r="E18">
-        <v>144.51499999999999</v>
+        <v>142.845</v>
       </c>
       <c r="F18">
-        <v>144.68299999999999</v>
+        <v>143.56100000000001</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.9819999999999993</v>
+        <v>1.3230000000000075</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -864,23 +864,23 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C19">
-        <v>144.84299999999999</v>
+        <v>144.79900000000001</v>
       </c>
       <c r="D19">
-        <v>145.95099999999999</v>
+        <v>145.83799999999999</v>
       </c>
       <c r="E19">
-        <v>143.96899999999999</v>
+        <v>144.51499999999999</v>
       </c>
       <c r="F19">
-        <v>144.65600000000001</v>
+        <v>144.68299999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>4.4819999999999993</v>
+        <v>1.9819999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -888,23 +888,23 @@
         <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C20">
-        <v>146.94499999999999</v>
+        <v>144.84299999999999</v>
       </c>
       <c r="D20">
-        <v>148.73400000000001</v>
+        <v>145.95099999999999</v>
       </c>
       <c r="E20">
-        <v>144.25200000000001</v>
+        <v>143.96899999999999</v>
       </c>
       <c r="F20">
-        <v>144.75700000000001</v>
+        <v>144.65600000000001</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.6330000000000098</v>
+        <v>4.4819999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -912,23 +912,23 @@
         <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C21">
-        <v>147.31399999999999</v>
+        <v>146.94499999999999</v>
       </c>
       <c r="D21">
-        <v>149.48500000000001</v>
+        <v>148.73400000000001</v>
       </c>
       <c r="E21">
-        <v>146.852</v>
+        <v>144.25200000000001</v>
       </c>
       <c r="F21">
-        <v>147.61000000000001</v>
+        <v>144.75700000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>4.0420000000000016</v>
+        <v>2.6330000000000098</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -936,23 +936,23 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C22">
-        <v>143.47300000000001</v>
+        <v>147.31399999999999</v>
       </c>
       <c r="D22">
-        <v>147.255</v>
+        <v>149.48500000000001</v>
       </c>
       <c r="E22">
-        <v>143.21299999999999</v>
+        <v>146.852</v>
       </c>
       <c r="F22">
-        <v>146.82599999999999</v>
+        <v>147.61000000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>4.8100000000000023</v>
+        <v>4.0420000000000016</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -960,23 +960,23 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C23">
-        <v>147.029</v>
+        <v>143.47300000000001</v>
       </c>
       <c r="D23">
-        <v>147.57900000000001</v>
+        <v>147.255</v>
       </c>
       <c r="E23">
-        <v>142.76900000000001</v>
+        <v>143.21299999999999</v>
       </c>
       <c r="F23">
-        <v>143.554</v>
+        <v>146.82599999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>2.5960000000000036</v>
+        <v>4.8100000000000023</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -984,23 +984,23 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C24">
-        <v>146.88499999999999</v>
+        <v>147.029</v>
       </c>
       <c r="D24">
-        <v>148.405</v>
+        <v>147.57900000000001</v>
       </c>
       <c r="E24">
-        <v>145.809</v>
+        <v>142.76900000000001</v>
       </c>
       <c r="F24">
-        <v>147.017</v>
+        <v>143.554</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.3479999999999848</v>
+        <v>2.5960000000000036</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1008,23 +1008,23 @@
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C25">
-        <v>149.226</v>
+        <v>146.88499999999999</v>
       </c>
       <c r="D25">
-        <v>149.51</v>
+        <v>148.405</v>
       </c>
       <c r="E25">
-        <v>147.16200000000001</v>
+        <v>145.809</v>
       </c>
       <c r="F25">
-        <v>147.56899999999999</v>
+        <v>147.017</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.228999999999985</v>
+        <v>2.3479999999999848</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1032,23 +1032,23 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C26">
-        <v>148.203</v>
+        <v>149.226</v>
       </c>
       <c r="D26">
-        <v>149.42099999999999</v>
+        <v>149.51</v>
       </c>
       <c r="E26">
-        <v>147.19200000000001</v>
+        <v>147.16200000000001</v>
       </c>
       <c r="F26">
-        <v>149.04</v>
+        <v>147.56899999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.146000000000015</v>
+        <v>2.228999999999985</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1056,23 +1056,23 @@
         <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C27">
-        <v>147.13</v>
+        <v>148.203</v>
       </c>
       <c r="D27">
-        <v>149.09</v>
+        <v>149.42099999999999</v>
       </c>
       <c r="E27">
-        <v>146.94399999999999</v>
+        <v>147.19200000000001</v>
       </c>
       <c r="F27">
-        <v>148.17099999999999</v>
+        <v>149.04</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>3.4010000000000105</v>
+        <v>2.146000000000015</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1080,23 +1080,23 @@
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C28">
-        <v>146.37700000000001</v>
+        <v>147.13</v>
       </c>
       <c r="D28">
-        <v>149.714</v>
+        <v>149.09</v>
       </c>
       <c r="E28">
-        <v>146.31299999999999</v>
+        <v>146.94399999999999</v>
       </c>
       <c r="F28">
-        <v>147.32499999999999</v>
+        <v>148.17099999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>3.953000000000003</v>
+        <v>3.4010000000000105</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1104,23 +1104,23 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C29">
-        <v>143.405</v>
+        <v>146.37700000000001</v>
       </c>
       <c r="D29">
-        <v>147.02199999999999</v>
+        <v>149.714</v>
       </c>
       <c r="E29">
-        <v>143.06899999999999</v>
+        <v>146.31299999999999</v>
       </c>
       <c r="F29">
-        <v>146.35900000000001</v>
+        <v>147.32499999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.3810000000000002</v>
+        <v>3.953000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1128,23 +1128,23 @@
         <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C30">
-        <v>143.488</v>
+        <v>143.405</v>
       </c>
       <c r="D30">
-        <v>144.97200000000001</v>
+        <v>147.02199999999999</v>
       </c>
       <c r="E30">
-        <v>142.59100000000001</v>
+        <v>143.06899999999999</v>
       </c>
       <c r="F30">
-        <v>143.38499999999999</v>
+        <v>146.35900000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>3.160000000000025</v>
+        <v>2.3810000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1152,23 +1152,23 @@
         <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C31">
-        <v>142.941</v>
+        <v>143.488</v>
       </c>
       <c r="D31">
-        <v>145.68700000000001</v>
+        <v>144.97200000000001</v>
       </c>
       <c r="E31">
-        <v>142.52699999999999</v>
+        <v>142.59100000000001</v>
       </c>
       <c r="F31">
-        <v>143.97200000000001</v>
+        <v>143.38499999999999</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>2.5740000000000123</v>
+        <v>3.160000000000025</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1176,23 +1176,23 @@
         <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C32">
-        <v>140.84200000000001</v>
+        <v>142.941</v>
       </c>
       <c r="D32">
-        <v>143.238</v>
+        <v>145.68700000000001</v>
       </c>
       <c r="E32">
-        <v>140.66399999999999</v>
+        <v>142.52699999999999</v>
       </c>
       <c r="F32">
-        <v>142.88399999999999</v>
+        <v>143.97200000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.5769999999999982</v>
+        <v>2.5740000000000123</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1200,23 +1200,23 @@
         <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C33">
-        <v>140.899</v>
+        <v>140.84200000000001</v>
       </c>
       <c r="D33">
-        <v>142.47200000000001</v>
+        <v>143.238</v>
       </c>
       <c r="E33">
-        <v>139.89500000000001</v>
+        <v>140.66399999999999</v>
       </c>
       <c r="F33">
-        <v>140.90199999999999</v>
+        <v>142.88399999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>3.8010000000000161</v>
+        <v>2.5769999999999982</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1224,23 +1224,23 @@
         <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C34">
-        <v>144.56200000000001</v>
+        <v>140.899</v>
       </c>
       <c r="D34">
-        <v>144.73500000000001</v>
+        <v>142.47200000000001</v>
       </c>
       <c r="E34">
-        <v>140.934</v>
+        <v>139.89500000000001</v>
       </c>
       <c r="F34">
-        <v>141.54900000000001</v>
+        <v>140.90199999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.6360000000000241</v>
+        <v>3.8010000000000161</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1248,23 +1248,23 @@
         <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C35">
-        <v>145.42500000000001</v>
+        <v>144.56200000000001</v>
       </c>
       <c r="D35">
-        <v>147.14500000000001</v>
+        <v>144.73500000000001</v>
       </c>
       <c r="E35">
-        <v>144.50899999999999</v>
+        <v>140.934</v>
       </c>
       <c r="F35">
-        <v>144.68600000000001</v>
+        <v>141.54900000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.2400000000000091</v>
+        <v>2.6360000000000241</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1272,23 +1272,23 @@
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C36">
-        <v>146.18700000000001</v>
+        <v>145.42500000000001</v>
       </c>
       <c r="D36">
-        <v>146.50800000000001</v>
+        <v>147.14500000000001</v>
       </c>
       <c r="E36">
-        <v>145.268</v>
+        <v>144.50899999999999</v>
       </c>
       <c r="F36">
-        <v>145.45099999999999</v>
+        <v>144.68600000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>3.3379999999999939</v>
+        <v>1.2400000000000091</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1296,23 +1296,23 @@
         <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C37">
-        <v>148.53200000000001</v>
+        <v>146.18700000000001</v>
       </c>
       <c r="D37">
-        <v>149.31100000000001</v>
+        <v>146.50800000000001</v>
       </c>
       <c r="E37">
-        <v>145.97300000000001</v>
+        <v>145.268</v>
       </c>
       <c r="F37">
-        <v>146.39099999999999</v>
+        <v>145.45099999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.7880000000000109</v>
+        <v>3.3379999999999939</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1320,23 +1320,23 @@
         <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C38">
-        <v>146.971</v>
+        <v>148.53200000000001</v>
       </c>
       <c r="D38">
-        <v>148.899</v>
+        <v>149.31100000000001</v>
       </c>
       <c r="E38">
-        <v>146.11099999999999</v>
+        <v>145.97300000000001</v>
       </c>
       <c r="F38">
-        <v>148.66200000000001</v>
+        <v>146.39099999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.686000000000007</v>
+        <v>2.7880000000000109</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1344,23 +1344,23 @@
         <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C39">
-        <v>146.01400000000001</v>
+        <v>146.971</v>
       </c>
       <c r="D39">
-        <v>146.87</v>
+        <v>148.899</v>
       </c>
       <c r="E39">
-        <v>145.184</v>
+        <v>146.11099999999999</v>
       </c>
       <c r="F39">
-        <v>146.595</v>
+        <v>148.66200000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.561000000000007</v>
+        <v>1.686000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1368,23 +1368,23 @@
         <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C40">
-        <v>145.779</v>
+        <v>146.01400000000001</v>
       </c>
       <c r="D40">
-        <v>146.33000000000001</v>
+        <v>146.87</v>
       </c>
       <c r="E40">
-        <v>143.76900000000001</v>
+        <v>145.184</v>
       </c>
       <c r="F40">
-        <v>146.16300000000001</v>
+        <v>146.595</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.5240000000000009</v>
+        <v>2.561000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1392,23 +1392,23 @@
         <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C41">
-        <v>146.88499999999999</v>
+        <v>145.779</v>
       </c>
       <c r="D41">
-        <v>146.90600000000001</v>
+        <v>146.33000000000001</v>
       </c>
       <c r="E41">
-        <v>144.38200000000001</v>
+        <v>143.76900000000001</v>
       </c>
       <c r="F41">
-        <v>145.83099999999999</v>
+        <v>146.16300000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.6910000000000025</v>
+        <v>2.5240000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1416,23 +1416,23 @@
         <v>4</v>
       </c>
       <c r="B42" s="1">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C42">
-        <v>146.553</v>
+        <v>146.88499999999999</v>
       </c>
       <c r="D42">
-        <v>147.98400000000001</v>
+        <v>146.90600000000001</v>
       </c>
       <c r="E42">
-        <v>146.29300000000001</v>
+        <v>144.38200000000001</v>
       </c>
       <c r="F42">
-        <v>146.94300000000001</v>
+        <v>145.83099999999999</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.2800000000000011</v>
+        <v>1.6910000000000025</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1440,23 +1440,23 @@
         <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C43">
-        <v>146.07499999999999</v>
+        <v>146.553</v>
       </c>
       <c r="D43">
-        <v>148.11799999999999</v>
+        <v>147.98400000000001</v>
       </c>
       <c r="E43">
-        <v>145.83799999999999</v>
+        <v>146.29300000000001</v>
       </c>
       <c r="F43">
-        <v>146.709</v>
+        <v>146.94300000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>3.0970000000000084</v>
+        <v>2.2800000000000011</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1464,23 +1464,23 @@
         <v>4</v>
       </c>
       <c r="B44" s="1">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C44">
-        <v>146.107</v>
+        <v>146.07499999999999</v>
       </c>
       <c r="D44">
-        <v>146.291</v>
+        <v>148.11799999999999</v>
       </c>
       <c r="E44">
-        <v>143.19399999999999</v>
+        <v>145.83799999999999</v>
       </c>
       <c r="F44">
-        <v>146.173</v>
+        <v>146.709</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>4.4450000000000216</v>
+        <v>3.0970000000000084</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1488,23 +1488,23 @@
         <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C45">
-        <v>149.339</v>
+        <v>146.107</v>
       </c>
       <c r="D45">
-        <v>149.72200000000001</v>
+        <v>146.291</v>
       </c>
       <c r="E45">
-        <v>145.27699999999999</v>
+        <v>143.19399999999999</v>
       </c>
       <c r="F45">
-        <v>145.76499999999999</v>
+        <v>146.173</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>2.0120000000000005</v>
+        <v>4.4450000000000216</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1512,23 +1512,23 @@
         <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C46">
-        <v>147.995</v>
+        <v>149.339</v>
       </c>
       <c r="D46">
-        <v>150.005</v>
+        <v>149.72200000000001</v>
       </c>
       <c r="E46">
-        <v>147.99299999999999</v>
+        <v>145.27699999999999</v>
       </c>
       <c r="F46">
-        <v>149.22800000000001</v>
+        <v>145.76499999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>2.257000000000005</v>
+        <v>2.0120000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1536,23 +1536,23 @@
         <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C47">
-        <v>147.596</v>
+        <v>147.995</v>
       </c>
       <c r="D47">
-        <v>149.30600000000001</v>
+        <v>150.005</v>
       </c>
       <c r="E47">
-        <v>147.04900000000001</v>
+        <v>147.99299999999999</v>
       </c>
       <c r="F47">
-        <v>148.02199999999999</v>
+        <v>149.22800000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>3.782999999999987</v>
+        <v>2.257000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1560,23 +1560,23 @@
         <v>4</v>
       </c>
       <c r="B48" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C48">
-        <v>150.214</v>
+        <v>147.596</v>
       </c>
       <c r="D48">
-        <v>150.84399999999999</v>
+        <v>149.30600000000001</v>
       </c>
       <c r="E48">
-        <v>147.06100000000001</v>
+        <v>147.04900000000001</v>
       </c>
       <c r="F48">
-        <v>147.58699999999999</v>
+        <v>148.02199999999999</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>2.4759999999999991</v>
+        <v>3.782999999999987</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1584,23 +1584,23 @@
         <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C49">
-        <v>150.86500000000001</v>
+        <v>150.214</v>
       </c>
       <c r="D49">
-        <v>152.72499999999999</v>
+        <v>150.84399999999999</v>
       </c>
       <c r="E49">
-        <v>150.249</v>
+        <v>147.06100000000001</v>
       </c>
       <c r="F49">
-        <v>150.30799999999999</v>
+        <v>147.58699999999999</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>3.0799999999999841</v>
+        <v>2.4759999999999991</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1608,23 +1608,23 @@
         <v>4</v>
       </c>
       <c r="B50" s="1">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C50">
-        <v>153.012</v>
+        <v>150.86500000000001</v>
       </c>
       <c r="D50">
-        <v>153.76</v>
+        <v>152.72499999999999</v>
       </c>
       <c r="E50">
-        <v>150.68</v>
+        <v>150.249</v>
       </c>
       <c r="F50">
-        <v>150.75200000000001</v>
+        <v>150.30799999999999</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>3.3569999999999993</v>
+        <v>3.0799999999999841</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1632,23 +1632,23 @@
         <v>4</v>
       </c>
       <c r="B51" s="1">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C51">
-        <v>150.577</v>
+        <v>153.012</v>
       </c>
       <c r="D51">
-        <v>153.84800000000001</v>
+        <v>153.76</v>
       </c>
       <c r="E51">
-        <v>150.49100000000001</v>
+        <v>150.68</v>
       </c>
       <c r="F51">
-        <v>152.904</v>
+        <v>150.75200000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>2.8380000000000223</v>
+        <v>3.3569999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1656,23 +1656,23 @@
         <v>4</v>
       </c>
       <c r="B52" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C52">
-        <v>149.041</v>
+        <v>150.577</v>
       </c>
       <c r="D52">
-        <v>151.22200000000001</v>
+        <v>153.84800000000001</v>
       </c>
       <c r="E52">
-        <v>148.38399999999999</v>
+        <v>150.49100000000001</v>
       </c>
       <c r="F52">
-        <v>150.64599999999999</v>
+        <v>152.904</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.561000000000007</v>
+        <v>2.8380000000000223</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1680,19 +1680,19 @@
         <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C53">
-        <v>148.03200000000001</v>
+        <v>149.041</v>
       </c>
       <c r="D53">
-        <v>150.57900000000001</v>
+        <v>151.22200000000001</v>
       </c>
       <c r="E53">
-        <v>148.018</v>
+        <v>148.38399999999999</v>
       </c>
       <c r="F53">
-        <v>149.042</v>
+        <v>150.64599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1700,19 +1700,19 @@
         <v>4</v>
       </c>
       <c r="B54" s="1">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C54">
-        <v>147.80600000000001</v>
+        <v>148.03200000000001</v>
       </c>
       <c r="D54">
-        <v>150.29400000000001</v>
+        <v>150.57900000000001</v>
       </c>
       <c r="E54">
-        <v>147.03200000000001</v>
+        <v>148.018</v>
       </c>
       <c r="F54">
-        <v>148.119</v>
+        <v>149.042</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1720,19 +1720,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="1">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C55">
-        <v>147.84700000000001</v>
+        <v>147.80600000000001</v>
       </c>
       <c r="D55">
-        <v>149.37200000000001</v>
+        <v>150.29400000000001</v>
       </c>
       <c r="E55">
-        <v>147.233</v>
+        <v>147.03200000000001</v>
       </c>
       <c r="F55">
-        <v>147.87299999999999</v>
+        <v>148.119</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1740,19 +1740,19 @@
         <v>4</v>
       </c>
       <c r="B56" s="1">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C56">
-        <v>145.50399999999999</v>
+        <v>147.84700000000001</v>
       </c>
       <c r="D56">
-        <v>148.541</v>
+        <v>149.37200000000001</v>
       </c>
       <c r="E56">
-        <v>145.06399999999999</v>
+        <v>147.233</v>
       </c>
       <c r="F56">
-        <v>147.916</v>
+        <v>147.87299999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1760,19 +1760,19 @@
         <v>4</v>
       </c>
       <c r="B57" s="1">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C57">
-        <v>149.90700000000001</v>
+        <v>145.50399999999999</v>
       </c>
       <c r="D57">
-        <v>149.995</v>
+        <v>148.541</v>
       </c>
       <c r="E57">
-        <v>144.97399999999999</v>
+        <v>145.06399999999999</v>
       </c>
       <c r="F57">
-        <v>145.82</v>
+        <v>147.916</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1780,19 +1780,19 @@
         <v>4</v>
       </c>
       <c r="B58" s="1">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C58">
-        <v>148.97300000000001</v>
+        <v>149.90700000000001</v>
       </c>
       <c r="D58">
-        <v>150.91200000000001</v>
+        <v>149.995</v>
       </c>
       <c r="E58">
-        <v>148.52600000000001</v>
+        <v>144.97399999999999</v>
       </c>
       <c r="F58">
-        <v>149.13</v>
+        <v>145.82</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1800,19 +1800,19 @@
         <v>4</v>
       </c>
       <c r="B59" s="1">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C59">
-        <v>150.26400000000001</v>
+        <v>148.97300000000001</v>
       </c>
       <c r="D59">
-        <v>150.81200000000001</v>
+        <v>150.91200000000001</v>
       </c>
       <c r="E59">
-        <v>147.95099999999999</v>
+        <v>148.52600000000001</v>
       </c>
       <c r="F59">
-        <v>148.99</v>
+        <v>149.13</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1820,19 +1820,19 @@
         <v>4</v>
       </c>
       <c r="B60" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C60">
-        <v>155.34800000000001</v>
+        <v>150.26400000000001</v>
       </c>
       <c r="D60">
-        <v>155.51499999999999</v>
+        <v>150.81200000000001</v>
       </c>
       <c r="E60">
-        <v>148.905</v>
+        <v>147.95099999999999</v>
       </c>
       <c r="F60">
-        <v>150.39599999999999</v>
+        <v>148.99</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1840,19 +1840,19 @@
         <v>4</v>
       </c>
       <c r="B61" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C61">
-        <v>153.642</v>
+        <v>155.34800000000001</v>
       </c>
       <c r="D61">
-        <v>156.59299999999999</v>
+        <v>155.51499999999999</v>
       </c>
       <c r="E61">
-        <v>151.959</v>
+        <v>148.905</v>
       </c>
       <c r="F61">
-        <v>155.56700000000001</v>
+        <v>150.39599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1860,19 +1860,19 @@
         <v>4</v>
       </c>
       <c r="B62" s="1">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C62">
-        <v>153.572</v>
+        <v>153.642</v>
       </c>
       <c r="D62">
-        <v>156.07</v>
+        <v>156.59299999999999</v>
       </c>
       <c r="E62">
-        <v>153.411</v>
+        <v>151.959</v>
       </c>
       <c r="F62">
-        <v>153.71799999999999</v>
+        <v>155.56700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1880,19 +1880,19 @@
         <v>4</v>
       </c>
       <c r="B63" s="1">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C63">
-        <v>152.49199999999999</v>
+        <v>153.572</v>
       </c>
       <c r="D63">
-        <v>154.55600000000001</v>
+        <v>156.07</v>
       </c>
       <c r="E63">
-        <v>151.917</v>
+        <v>153.411</v>
       </c>
       <c r="F63">
-        <v>153.51599999999999</v>
+        <v>153.71799999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1900,19 +1900,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="1">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C64">
-        <v>153.37700000000001</v>
+        <v>152.49199999999999</v>
       </c>
       <c r="D64">
-        <v>153.65799999999999</v>
+        <v>154.55600000000001</v>
       </c>
       <c r="E64">
-        <v>150.17699999999999</v>
+        <v>151.917</v>
       </c>
       <c r="F64">
-        <v>152.428</v>
+        <v>153.51599999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>4</v>
       </c>
       <c r="B65" s="1">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C65">
-        <v>152.053</v>
+        <v>153.37700000000001</v>
       </c>
       <c r="D65">
-        <v>153.648</v>
+        <v>153.65799999999999</v>
       </c>
       <c r="E65">
-        <v>151.73699999999999</v>
+        <v>150.17699999999999</v>
       </c>
       <c r="F65">
-        <v>153.40299999999999</v>
+        <v>152.428</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C66">
-        <v>151.255</v>
+        <v>152.053</v>
       </c>
       <c r="D66">
-        <v>152.5</v>
+        <v>153.648</v>
       </c>
       <c r="E66">
-        <v>151.172</v>
+        <v>151.73699999999999</v>
       </c>
       <c r="F66">
-        <v>152.137</v>
+        <v>153.40299999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>4</v>
       </c>
       <c r="B67" s="1">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C67">
-        <v>150.03800000000001</v>
+        <v>151.255</v>
       </c>
       <c r="D67">
-        <v>151.99799999999999</v>
+        <v>152.5</v>
       </c>
       <c r="E67">
-        <v>149.72800000000001</v>
+        <v>151.172</v>
       </c>
       <c r="F67">
-        <v>151.36199999999999</v>
+        <v>152.137</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>4</v>
       </c>
       <c r="B68" s="1">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C68">
-        <v>151.88399999999999</v>
+        <v>150.03800000000001</v>
       </c>
       <c r="D68">
-        <v>152.33000000000001</v>
+        <v>151.99799999999999</v>
       </c>
       <c r="E68">
-        <v>149.4</v>
+        <v>149.72800000000001</v>
       </c>
       <c r="F68">
-        <v>150.071</v>
+        <v>151.36199999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>4</v>
       </c>
       <c r="B69" s="1">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C69">
-        <v>151.69399999999999</v>
+        <v>151.88399999999999</v>
       </c>
       <c r="D69">
-        <v>153.39400000000001</v>
+        <v>152.33000000000001</v>
       </c>
       <c r="E69">
-        <v>149.74700000000001</v>
+        <v>149.4</v>
       </c>
       <c r="F69">
-        <v>152.09399999999999</v>
+        <v>150.071</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>4</v>
       </c>
       <c r="B70" s="1">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C70">
-        <v>148.536</v>
+        <v>151.69399999999999</v>
       </c>
       <c r="D70">
-        <v>152.46700000000001</v>
+        <v>153.39400000000001</v>
       </c>
       <c r="E70">
-        <v>146.959</v>
+        <v>149.74700000000001</v>
       </c>
       <c r="F70">
-        <v>151.14699999999999</v>
+        <v>152.09399999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>4</v>
       </c>
       <c r="B71" s="1">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C71">
-        <v>148.19499999999999</v>
+        <v>148.536</v>
       </c>
       <c r="D71">
-        <v>149.35400000000001</v>
+        <v>152.46700000000001</v>
       </c>
       <c r="E71">
-        <v>147.619</v>
+        <v>146.959</v>
       </c>
       <c r="F71">
-        <v>148.68</v>
+        <v>151.14699999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2060,19 +2060,19 @@
         <v>4</v>
       </c>
       <c r="B72" s="1">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C72">
-        <v>149.36500000000001</v>
+        <v>148.19499999999999</v>
       </c>
       <c r="D72">
-        <v>149.66900000000001</v>
+        <v>149.35400000000001</v>
       </c>
       <c r="E72">
-        <v>147.916</v>
+        <v>147.619</v>
       </c>
       <c r="F72">
-        <v>148.13800000000001</v>
+        <v>148.68</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2080,19 +2080,19 @@
         <v>4</v>
       </c>
       <c r="B73" s="1">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C73">
-        <v>149.011</v>
+        <v>149.36500000000001</v>
       </c>
       <c r="D73">
-        <v>150.30799999999999</v>
+        <v>149.66900000000001</v>
       </c>
       <c r="E73">
-        <v>148.43199999999999</v>
+        <v>147.916</v>
       </c>
       <c r="F73">
-        <v>149.739</v>
+        <v>148.13800000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2100,19 +2100,19 @@
         <v>4</v>
       </c>
       <c r="B74" s="1">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C74">
-        <v>149.25</v>
+        <v>149.011</v>
       </c>
       <c r="D74">
-        <v>151.92599999999999</v>
+        <v>150.30799999999999</v>
       </c>
       <c r="E74">
-        <v>148.65</v>
+        <v>148.43199999999999</v>
       </c>
       <c r="F74">
-        <v>149.08500000000001</v>
+        <v>149.739</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2120,19 +2120,19 @@
         <v>4</v>
       </c>
       <c r="B75" s="1">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C75">
-        <v>150.05000000000001</v>
+        <v>149.25</v>
       </c>
       <c r="D75">
-        <v>151.37799999999999</v>
+        <v>151.92599999999999</v>
       </c>
       <c r="E75">
-        <v>148.91</v>
+        <v>148.65</v>
       </c>
       <c r="F75">
-        <v>149.30099999999999</v>
+        <v>149.08500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2140,19 +2140,19 @@
         <v>4</v>
       </c>
       <c r="B76" s="1">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C76">
-        <v>148.70699999999999</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="D76">
-        <v>149.81</v>
+        <v>151.37799999999999</v>
       </c>
       <c r="E76">
-        <v>147.76</v>
+        <v>148.91</v>
       </c>
       <c r="F76">
-        <v>149.65899999999999</v>
+        <v>149.30099999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2160,19 +2160,19 @@
         <v>4</v>
       </c>
       <c r="B77" s="1">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C77">
-        <v>147.33199999999999</v>
+        <v>148.70699999999999</v>
       </c>
       <c r="D77">
-        <v>149.25</v>
+        <v>149.81</v>
       </c>
       <c r="E77">
-        <v>146.91900000000001</v>
+        <v>147.76</v>
       </c>
       <c r="F77">
-        <v>148.65</v>
+        <v>149.65899999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2180,19 +2180,19 @@
         <v>4</v>
       </c>
       <c r="B78" s="1">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C78">
-        <v>150.49700000000001</v>
+        <v>147.33199999999999</v>
       </c>
       <c r="D78">
-        <v>150.953</v>
+        <v>149.25</v>
       </c>
       <c r="E78">
-        <v>147.02600000000001</v>
+        <v>146.91900000000001</v>
       </c>
       <c r="F78">
-        <v>147.142</v>
+        <v>148.65</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2200,19 +2200,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="1">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C79">
-        <v>151.255</v>
+        <v>150.49700000000001</v>
       </c>
       <c r="D79">
-        <v>152.251</v>
+        <v>150.953</v>
       </c>
       <c r="E79">
-        <v>149.72200000000001</v>
+        <v>147.02600000000001</v>
       </c>
       <c r="F79">
-        <v>150.76499999999999</v>
+        <v>147.142</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2220,19 +2220,19 @@
         <v>4</v>
       </c>
       <c r="B80" s="1">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C80">
-        <v>150.94300000000001</v>
+        <v>151.255</v>
       </c>
       <c r="D80">
-        <v>152.84399999999999</v>
+        <v>152.251</v>
       </c>
       <c r="E80">
-        <v>150.11000000000001</v>
+        <v>149.72200000000001</v>
       </c>
       <c r="F80">
-        <v>151.00399999999999</v>
+        <v>150.76499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2240,19 +2240,19 @@
         <v>4</v>
       </c>
       <c r="B81" s="1">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C81">
-        <v>142.733</v>
+        <v>150.94300000000001</v>
       </c>
       <c r="D81">
-        <v>151.54</v>
+        <v>152.84399999999999</v>
       </c>
       <c r="E81">
-        <v>142.67400000000001</v>
+        <v>150.11000000000001</v>
       </c>
       <c r="F81">
-        <v>150.745</v>
+        <v>151.00399999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2260,19 +2260,19 @@
         <v>4</v>
       </c>
       <c r="B82" s="1">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C82">
-        <v>142.04900000000001</v>
+        <v>142.733</v>
       </c>
       <c r="D82">
-        <v>142.67099999999999</v>
+        <v>151.54</v>
       </c>
       <c r="E82">
-        <v>141.18</v>
+        <v>142.67400000000001</v>
       </c>
       <c r="F82">
-        <v>142.34200000000001</v>
+        <v>150.745</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2280,19 +2280,19 @@
         <v>4</v>
       </c>
       <c r="B83" s="1">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C83">
-        <v>141.00399999999999</v>
+        <v>142.04900000000001</v>
       </c>
       <c r="D83">
-        <v>143.00800000000001</v>
+        <v>142.67099999999999</v>
       </c>
       <c r="E83">
-        <v>139.99700000000001</v>
+        <v>141.18</v>
       </c>
       <c r="F83">
-        <v>142.85900000000001</v>
+        <v>142.34200000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2300,19 +2300,19 @@
         <v>4</v>
       </c>
       <c r="B84" s="1">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C84">
-        <v>140.6</v>
+        <v>141.00399999999999</v>
       </c>
       <c r="D84">
-        <v>141.024</v>
+        <v>143.00800000000001</v>
       </c>
       <c r="E84">
-        <v>139.29499999999999</v>
+        <v>139.99700000000001</v>
       </c>
       <c r="F84">
-        <v>140.732</v>
+        <v>142.85900000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2320,19 +2320,19 @@
         <v>4</v>
       </c>
       <c r="B85" s="1">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C85">
-        <v>141.87799999999999</v>
+        <v>140.6</v>
       </c>
       <c r="D85">
-        <v>143.17500000000001</v>
+        <v>141.024</v>
       </c>
       <c r="E85">
-        <v>139.77199999999999</v>
+        <v>139.29499999999999</v>
       </c>
       <c r="F85">
-        <v>140.62700000000001</v>
+        <v>140.732</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2340,19 +2340,19 @@
         <v>4</v>
       </c>
       <c r="B86" s="1">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C86">
-        <v>144.41800000000001</v>
+        <v>141.87799999999999</v>
       </c>
       <c r="D86">
-        <v>144.703</v>
+        <v>143.17500000000001</v>
       </c>
       <c r="E86">
-        <v>141.239</v>
+        <v>139.77199999999999</v>
       </c>
       <c r="F86">
-        <v>142.03299999999999</v>
+        <v>140.62700000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2360,19 +2360,19 @@
         <v>4</v>
       </c>
       <c r="B87" s="1">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C87">
-        <v>145.29300000000001</v>
+        <v>144.41800000000001</v>
       </c>
       <c r="D87">
-        <v>146.785</v>
+        <v>144.703</v>
       </c>
       <c r="E87">
-        <v>144.21600000000001</v>
+        <v>141.239</v>
       </c>
       <c r="F87">
-        <v>144.357</v>
+        <v>142.03299999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2380,19 +2380,19 @@
         <v>4</v>
       </c>
       <c r="B88" s="1">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C88">
-        <v>144.381</v>
+        <v>145.29300000000001</v>
       </c>
       <c r="D88">
-        <v>146.54499999999999</v>
+        <v>146.785</v>
       </c>
       <c r="E88">
-        <v>144.012</v>
+        <v>144.21600000000001</v>
       </c>
       <c r="F88">
-        <v>145.43199999999999</v>
+        <v>144.357</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2400,19 +2400,19 @@
         <v>4</v>
       </c>
       <c r="B89" s="1">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C89">
-        <v>147.35499999999999</v>
+        <v>144.381</v>
       </c>
       <c r="D89">
-        <v>147.59200000000001</v>
+        <v>146.54499999999999</v>
       </c>
       <c r="E89">
-        <v>144.04400000000001</v>
+        <v>144.012</v>
       </c>
       <c r="F89">
-        <v>144.36199999999999</v>
+        <v>145.43199999999999</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2420,19 +2420,19 @@
         <v>4</v>
       </c>
       <c r="B90" s="1">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C90">
-        <v>146.88</v>
+        <v>147.35499999999999</v>
       </c>
       <c r="D90">
-        <v>147.762</v>
+        <v>147.59200000000001</v>
       </c>
       <c r="E90">
-        <v>145.25399999999999</v>
+        <v>144.04400000000001</v>
       </c>
       <c r="F90">
-        <v>147.46199999999999</v>
+        <v>144.36199999999999</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2440,19 +2440,19 @@
         <v>4</v>
       </c>
       <c r="B91" s="1">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C91">
-        <v>146.023</v>
+        <v>146.88</v>
       </c>
       <c r="D91">
-        <v>147.602</v>
+        <v>147.762</v>
       </c>
       <c r="E91">
-        <v>145.88</v>
+        <v>145.25399999999999</v>
       </c>
       <c r="F91">
-        <v>146.72300000000001</v>
+        <v>147.46199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2460,19 +2460,19 @@
         <v>4</v>
       </c>
       <c r="B92" s="1">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C92">
-        <v>141.71799999999999</v>
+        <v>146.023</v>
       </c>
       <c r="D92">
-        <v>146.53200000000001</v>
+        <v>147.602</v>
       </c>
       <c r="E92">
-        <v>141.60499999999999</v>
+        <v>145.88</v>
       </c>
       <c r="F92">
-        <v>146.48699999999999</v>
+        <v>146.72300000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2480,19 +2480,19 @@
         <v>4</v>
       </c>
       <c r="B93" s="1">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C93">
-        <v>141.41499999999999</v>
+        <v>141.71799999999999</v>
       </c>
       <c r="D93">
-        <v>142.52699999999999</v>
+        <v>146.53200000000001</v>
       </c>
       <c r="E93">
-        <v>139.83500000000001</v>
+        <v>141.60499999999999</v>
       </c>
       <c r="F93">
-        <v>141.58699999999999</v>
+        <v>146.48699999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2500,19 +2500,19 @@
         <v>4</v>
       </c>
       <c r="B94" s="1">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C94">
-        <v>140.53</v>
+        <v>141.41499999999999</v>
       </c>
       <c r="D94">
-        <v>142.31899999999999</v>
+        <v>142.52699999999999</v>
       </c>
       <c r="E94">
-        <v>138.655</v>
+        <v>139.83500000000001</v>
       </c>
       <c r="F94">
-        <v>141.63200000000001</v>
+        <v>141.58699999999999</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2520,19 +2520,19 @@
         <v>4</v>
       </c>
       <c r="B95" s="1">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C95">
-        <v>142.08799999999999</v>
+        <v>140.53</v>
       </c>
       <c r="D95">
-        <v>143.084</v>
+        <v>142.31899999999999</v>
       </c>
       <c r="E95">
-        <v>139.52099999999999</v>
+        <v>138.655</v>
       </c>
       <c r="F95">
-        <v>140.45099999999999</v>
+        <v>141.63200000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2540,19 +2540,19 @@
         <v>4</v>
       </c>
       <c r="B96" s="1">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C96">
-        <v>142.50899999999999</v>
+        <v>142.08799999999999</v>
       </c>
       <c r="D96">
-        <v>143.94</v>
+        <v>143.084</v>
       </c>
       <c r="E96">
-        <v>141.46799999999999</v>
+        <v>139.52099999999999</v>
       </c>
       <c r="F96">
-        <v>142.27699999999999</v>
+        <v>140.45099999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2560,19 +2560,19 @@
         <v>4</v>
       </c>
       <c r="B97" s="1">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C97">
-        <v>144.69800000000001</v>
+        <v>142.50899999999999</v>
       </c>
       <c r="D97">
-        <v>145.42500000000001</v>
+        <v>143.94</v>
       </c>
       <c r="E97">
-        <v>142.10599999999999</v>
+        <v>141.46799999999999</v>
       </c>
       <c r="F97">
-        <v>142.54400000000001</v>
+        <v>142.27699999999999</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2580,19 +2580,19 @@
         <v>4</v>
       </c>
       <c r="B98" s="1">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C98">
-        <v>145.93199999999999</v>
+        <v>144.69800000000001</v>
       </c>
       <c r="D98">
-        <v>147.10400000000001</v>
+        <v>145.42500000000001</v>
       </c>
       <c r="E98">
-        <v>143.34800000000001</v>
+        <v>142.10599999999999</v>
       </c>
       <c r="F98">
-        <v>144.947</v>
+        <v>142.54400000000001</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2600,19 +2600,19 @@
         <v>4</v>
       </c>
       <c r="B99" s="1">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C99">
-        <v>146.51400000000001</v>
+        <v>145.93199999999999</v>
       </c>
       <c r="D99">
-        <v>148.09299999999999</v>
+        <v>147.10400000000001</v>
       </c>
       <c r="E99">
-        <v>145.64599999999999</v>
+        <v>143.34800000000001</v>
       </c>
       <c r="F99">
-        <v>145.988</v>
+        <v>144.947</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2620,19 +2620,19 @@
         <v>4</v>
       </c>
       <c r="B100" s="1">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C100">
-        <v>144.13900000000001</v>
+        <v>146.51400000000001</v>
       </c>
       <c r="D100">
-        <v>146.18100000000001</v>
+        <v>148.09299999999999</v>
       </c>
       <c r="E100">
-        <v>143.79</v>
+        <v>145.64599999999999</v>
       </c>
       <c r="F100">
-        <v>146.154</v>
+        <v>145.988</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2640,19 +2640,19 @@
         <v>4</v>
       </c>
       <c r="B101" s="1">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C101">
-        <v>141.33500000000001</v>
+        <v>144.13900000000001</v>
       </c>
       <c r="D101">
-        <v>144.48099999999999</v>
+        <v>146.18100000000001</v>
       </c>
       <c r="E101">
-        <v>140.04400000000001</v>
+        <v>143.79</v>
       </c>
       <c r="F101">
-        <v>144.255</v>
+        <v>146.154</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2660,19 +2660,19 @@
         <v>4</v>
       </c>
       <c r="B102" s="1">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C102">
-        <v>136.21799999999999</v>
+        <v>141.33500000000001</v>
       </c>
       <c r="D102">
-        <v>140.32900000000001</v>
+        <v>144.48099999999999</v>
       </c>
       <c r="E102">
-        <v>135.584</v>
+        <v>140.04400000000001</v>
       </c>
       <c r="F102">
-        <v>139.80699999999999</v>
+        <v>144.255</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2680,19 +2680,19 @@
         <v>4</v>
       </c>
       <c r="B103" s="1">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C103">
-        <v>137.41</v>
+        <v>136.21799999999999</v>
       </c>
       <c r="D103">
-        <v>138.251</v>
+        <v>140.32900000000001</v>
       </c>
       <c r="E103">
-        <v>135.953</v>
+        <v>135.584</v>
       </c>
       <c r="F103">
-        <v>136.08699999999999</v>
+        <v>139.80699999999999</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2700,19 +2700,19 @@
         <v>4</v>
       </c>
       <c r="B104" s="1">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C104">
-        <v>139.60499999999999</v>
+        <v>137.41</v>
       </c>
       <c r="D104">
-        <v>139.886</v>
+        <v>138.251</v>
       </c>
       <c r="E104">
-        <v>136.88499999999999</v>
+        <v>135.953</v>
       </c>
       <c r="F104">
-        <v>137.43</v>
+        <v>136.08699999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2720,19 +2720,19 @@
         <v>4</v>
       </c>
       <c r="B105" s="1">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C105">
-        <v>138.55600000000001</v>
+        <v>139.60499999999999</v>
       </c>
       <c r="D105">
-        <v>140.07300000000001</v>
+        <v>139.886</v>
       </c>
       <c r="E105">
-        <v>137.50700000000001</v>
+        <v>136.88499999999999</v>
       </c>
       <c r="F105">
-        <v>139.59</v>
+        <v>137.43</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2740,19 +2740,19 @@
         <v>4</v>
       </c>
       <c r="B106" s="1">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C106">
-        <v>139.47</v>
+        <v>138.55600000000001</v>
       </c>
       <c r="D106">
-        <v>140.39599999999999</v>
+        <v>140.07300000000001</v>
       </c>
       <c r="E106">
-        <v>137.74</v>
+        <v>137.50700000000001</v>
       </c>
       <c r="F106">
-        <v>138.999</v>
+        <v>139.59</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2760,19 +2760,19 @@
         <v>4</v>
       </c>
       <c r="B107" s="1">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C107">
-        <v>139.60400000000001</v>
+        <v>139.47</v>
       </c>
       <c r="D107">
-        <v>140.601</v>
+        <v>140.39599999999999</v>
       </c>
       <c r="E107">
-        <v>138.55000000000001</v>
+        <v>137.74</v>
       </c>
       <c r="F107">
-        <v>139.59399999999999</v>
+        <v>138.999</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2780,19 +2780,19 @@
         <v>4</v>
       </c>
       <c r="B108" s="1">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C108">
-        <v>139.91999999999999</v>
+        <v>139.60400000000001</v>
       </c>
       <c r="D108">
-        <v>140.524</v>
+        <v>140.601</v>
       </c>
       <c r="E108">
-        <v>138.423</v>
+        <v>138.55000000000001</v>
       </c>
       <c r="F108">
-        <v>139.58699999999999</v>
+        <v>139.59399999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2800,19 +2800,19 @@
         <v>4</v>
       </c>
       <c r="B109" s="1">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C109">
-        <v>139.833</v>
+        <v>139.91999999999999</v>
       </c>
       <c r="D109">
-        <v>140.73099999999999</v>
+        <v>140.524</v>
       </c>
       <c r="E109">
-        <v>138.81899999999999</v>
+        <v>138.423</v>
       </c>
       <c r="F109">
-        <v>140.19399999999999</v>
+        <v>139.58699999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2820,19 +2820,19 @@
         <v>4</v>
       </c>
       <c r="B110" s="1">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C110">
-        <v>140.00800000000001</v>
+        <v>139.833</v>
       </c>
       <c r="D110">
-        <v>142.02699999999999</v>
+        <v>140.73099999999999</v>
       </c>
       <c r="E110">
-        <v>139.40100000000001</v>
+        <v>138.81899999999999</v>
       </c>
       <c r="F110">
-        <v>139.71799999999999</v>
+        <v>140.19399999999999</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2840,19 +2840,19 @@
         <v>4</v>
       </c>
       <c r="B111" s="1">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C111">
-        <v>141.63399999999999</v>
+        <v>140.00800000000001</v>
       </c>
       <c r="D111">
-        <v>142.80099999999999</v>
+        <v>142.02699999999999</v>
       </c>
       <c r="E111">
-        <v>139.61699999999999</v>
+        <v>139.40100000000001</v>
       </c>
       <c r="F111">
-        <v>140.107</v>
+        <v>139.71799999999999</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2860,19 +2860,19 @@
         <v>4</v>
       </c>
       <c r="B112" s="1">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C112">
-        <v>140.40299999999999</v>
+        <v>141.63399999999999</v>
       </c>
       <c r="D112">
-        <v>142.36000000000001</v>
+        <v>142.80099999999999</v>
       </c>
       <c r="E112">
-        <v>138.53200000000001</v>
+        <v>139.61699999999999</v>
       </c>
       <c r="F112">
-        <v>141.41499999999999</v>
+        <v>140.107</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2880,19 +2880,19 @@
         <v>4</v>
       </c>
       <c r="B113" s="1">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C113">
-        <v>144.41300000000001</v>
+        <v>140.40299999999999</v>
       </c>
       <c r="D113">
-        <v>144.607</v>
+        <v>142.36000000000001</v>
       </c>
       <c r="E113">
-        <v>140.36600000000001</v>
+        <v>138.53200000000001</v>
       </c>
       <c r="F113">
-        <v>140.54300000000001</v>
+        <v>141.41499999999999</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2900,19 +2900,19 @@
         <v>4</v>
       </c>
       <c r="B114" s="1">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C114">
-        <v>141.333</v>
+        <v>144.41300000000001</v>
       </c>
       <c r="D114">
-        <v>144.762</v>
+        <v>144.607</v>
       </c>
       <c r="E114">
-        <v>140.749</v>
+        <v>140.36600000000001</v>
       </c>
       <c r="F114">
-        <v>144.345</v>
+        <v>140.54300000000001</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2920,19 +2920,19 @@
         <v>4</v>
       </c>
       <c r="B115" s="1">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C115">
-        <v>137.07300000000001</v>
+        <v>141.333</v>
       </c>
       <c r="D115">
-        <v>142.15899999999999</v>
+        <v>144.762</v>
       </c>
       <c r="E115">
-        <v>136.44900000000001</v>
+        <v>140.749</v>
       </c>
       <c r="F115">
-        <v>141.62799999999999</v>
+        <v>144.345</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2940,19 +2940,19 @@
         <v>4</v>
       </c>
       <c r="B116" s="1">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C116">
-        <v>143.30000000000001</v>
+        <v>137.07300000000001</v>
       </c>
       <c r="D116">
-        <v>143.84299999999999</v>
+        <v>142.15899999999999</v>
       </c>
       <c r="E116">
-        <v>138.9</v>
+        <v>136.44900000000001</v>
       </c>
       <c r="F116">
-        <v>139.62899999999999</v>
+        <v>141.62799999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2960,19 +2960,19 @@
         <v>4</v>
       </c>
       <c r="B117" s="1">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C117">
-        <v>144.11799999999999</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="D117">
-        <v>145.38300000000001</v>
+        <v>143.84299999999999</v>
       </c>
       <c r="E117">
-        <v>142.483</v>
+        <v>138.9</v>
       </c>
       <c r="F117">
-        <v>143.68799999999999</v>
+        <v>139.62899999999999</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2980,19 +2980,19 @@
         <v>4</v>
       </c>
       <c r="B118" s="1">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C118">
-        <v>143.78200000000001</v>
+        <v>144.11799999999999</v>
       </c>
       <c r="D118">
-        <v>144.685</v>
+        <v>145.38300000000001</v>
       </c>
       <c r="E118">
-        <v>142.161</v>
+        <v>142.483</v>
       </c>
       <c r="F118">
-        <v>144.15700000000001</v>
+        <v>143.68799999999999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3000,19 +3000,19 @@
         <v>4</v>
       </c>
       <c r="B119" s="1">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C119">
-        <v>147.14500000000001</v>
+        <v>143.78200000000001</v>
       </c>
       <c r="D119">
-        <v>147.297</v>
+        <v>144.685</v>
       </c>
       <c r="E119">
-        <v>143.48500000000001</v>
+        <v>142.161</v>
       </c>
       <c r="F119">
-        <v>144.16999999999999</v>
+        <v>144.15700000000001</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3020,19 +3020,19 @@
         <v>4</v>
       </c>
       <c r="B120" s="1">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C120">
-        <v>145.09399999999999</v>
+        <v>147.14500000000001</v>
       </c>
       <c r="D120">
-        <v>148.441</v>
+        <v>147.297</v>
       </c>
       <c r="E120">
-        <v>144.898</v>
+        <v>143.48500000000001</v>
       </c>
       <c r="F120">
-        <v>147.19399999999999</v>
+        <v>144.16999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3040,19 +3040,19 @@
         <v>4</v>
       </c>
       <c r="B121" s="1">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C121">
-        <v>143.59</v>
+        <v>145.09399999999999</v>
       </c>
       <c r="D121">
-        <v>146.01900000000001</v>
+        <v>148.441</v>
       </c>
       <c r="E121">
-        <v>142.52000000000001</v>
+        <v>144.898</v>
       </c>
       <c r="F121">
-        <v>145.04599999999999</v>
+        <v>147.19399999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3060,19 +3060,19 @@
         <v>4</v>
       </c>
       <c r="B122" s="1">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C122">
-        <v>140.40600000000001</v>
+        <v>143.59</v>
       </c>
       <c r="D122">
-        <v>145.179</v>
+        <v>146.01900000000001</v>
       </c>
       <c r="E122">
-        <v>138.501</v>
+        <v>142.52000000000001</v>
       </c>
       <c r="F122">
-        <v>144.54499999999999</v>
+        <v>145.04599999999999</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3080,19 +3080,19 @@
         <v>4</v>
       </c>
       <c r="B123" s="1">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C123">
-        <v>136.81</v>
+        <v>140.40600000000001</v>
       </c>
       <c r="D123">
-        <v>141.72999999999999</v>
+        <v>145.179</v>
       </c>
       <c r="E123">
-        <v>136.27199999999999</v>
+        <v>138.501</v>
       </c>
       <c r="F123">
-        <v>140.92400000000001</v>
+        <v>144.54499999999999</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3100,19 +3100,19 @@
         <v>4</v>
       </c>
       <c r="B124" s="1">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C124">
-        <v>134.303</v>
+        <v>136.81</v>
       </c>
       <c r="D124">
-        <v>137.56800000000001</v>
+        <v>141.72999999999999</v>
       </c>
       <c r="E124">
-        <v>134.155</v>
+        <v>136.27199999999999</v>
       </c>
       <c r="F124">
-        <v>136.965</v>
+        <v>140.92400000000001</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3120,19 +3120,19 @@
         <v>4</v>
       </c>
       <c r="B125" s="1">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C125">
-        <v>129.55000000000001</v>
+        <v>134.303</v>
       </c>
       <c r="D125">
-        <v>134.89599999999999</v>
+        <v>137.56800000000001</v>
       </c>
       <c r="E125">
-        <v>126.65900000000001</v>
+        <v>134.155</v>
       </c>
       <c r="F125">
-        <v>134.47499999999999</v>
+        <v>136.965</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3140,19 +3140,19 @@
         <v>4</v>
       </c>
       <c r="B126" s="1">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C126">
-        <v>127.39100000000001</v>
+        <v>129.55000000000001</v>
       </c>
       <c r="D126">
-        <v>129.43</v>
+        <v>134.89599999999999</v>
       </c>
       <c r="E126">
-        <v>126.48099999999999</v>
+        <v>126.65900000000001</v>
       </c>
       <c r="F126">
-        <v>128.90199999999999</v>
+        <v>134.47499999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3160,19 +3160,19 @@
         <v>4</v>
       </c>
       <c r="B127" s="1">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C127">
-        <v>126.884</v>
+        <v>127.39100000000001</v>
       </c>
       <c r="D127">
-        <v>128.40700000000001</v>
+        <v>129.43</v>
       </c>
       <c r="E127">
-        <v>126.58499999999999</v>
+        <v>126.48099999999999</v>
       </c>
       <c r="F127">
-        <v>127.68</v>
+        <v>128.90199999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3180,19 +3180,19 @@
         <v>4</v>
       </c>
       <c r="B128" s="1">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C128">
-        <v>126.90600000000001</v>
+        <v>126.884</v>
       </c>
       <c r="D128">
-        <v>128.154</v>
+        <v>128.40700000000001</v>
       </c>
       <c r="E128">
-        <v>126.104</v>
+        <v>126.58499999999999</v>
       </c>
       <c r="F128">
-        <v>126.944</v>
+        <v>127.68</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3200,19 +3200,19 @@
         <v>4</v>
       </c>
       <c r="B129" s="1">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C129">
-        <v>128.11699999999999</v>
+        <v>126.90600000000001</v>
       </c>
       <c r="D129">
-        <v>128.595</v>
+        <v>128.154</v>
       </c>
       <c r="E129">
-        <v>124.818</v>
+        <v>126.104</v>
       </c>
       <c r="F129">
-        <v>126.982</v>
+        <v>126.944</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3220,19 +3220,19 @@
         <v>4</v>
       </c>
       <c r="B130" s="1">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C130">
-        <v>131.08699999999999</v>
+        <v>128.11699999999999</v>
       </c>
       <c r="D130">
-        <v>132.214</v>
+        <v>128.595</v>
       </c>
       <c r="E130">
-        <v>118.19799999999999</v>
+        <v>124.818</v>
       </c>
       <c r="F130">
-        <v>127.999</v>
+        <v>126.982</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3240,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="B131" s="1">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C131">
-        <v>130.91200000000001</v>
+        <v>131.08699999999999</v>
       </c>
       <c r="D131">
-        <v>132.42099999999999</v>
+        <v>132.214</v>
       </c>
       <c r="E131">
-        <v>129.626</v>
+        <v>118.19799999999999</v>
       </c>
       <c r="F131">
-        <v>131.506</v>
+        <v>127.999</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3260,19 +3260,19 @@
         <v>4</v>
       </c>
       <c r="B132" s="1">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C132">
-        <v>132.90799999999999</v>
+        <v>130.91200000000001</v>
       </c>
       <c r="D132">
-        <v>133.46299999999999</v>
+        <v>132.42099999999999</v>
       </c>
       <c r="E132">
-        <v>130.39500000000001</v>
+        <v>129.626</v>
       </c>
       <c r="F132">
-        <v>131.018</v>
+        <v>131.506</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3280,19 +3280,19 @@
         <v>4</v>
       </c>
       <c r="B133" s="1">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C133">
-        <v>136.048</v>
+        <v>132.90799999999999</v>
       </c>
       <c r="D133">
-        <v>136.60900000000001</v>
+        <v>133.46299999999999</v>
       </c>
       <c r="E133">
-        <v>133.01</v>
+        <v>130.39500000000001</v>
       </c>
       <c r="F133">
-        <v>133.01</v>
+        <v>131.018</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3300,19 +3300,19 @@
         <v>4</v>
       </c>
       <c r="B134" s="1">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C134">
-        <v>138.35900000000001</v>
+        <v>136.048</v>
       </c>
       <c r="D134">
-        <v>138.40799999999999</v>
+        <v>136.60900000000001</v>
       </c>
       <c r="E134">
-        <v>135</v>
+        <v>133.01</v>
       </c>
       <c r="F134">
-        <v>136.31</v>
+        <v>133.01</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3320,19 +3320,19 @@
         <v>4</v>
       </c>
       <c r="B135" s="1">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C135">
-        <v>133.64400000000001</v>
+        <v>138.35900000000001</v>
       </c>
       <c r="D135">
-        <v>138.821</v>
+        <v>138.40799999999999</v>
       </c>
       <c r="E135">
-        <v>133.33000000000001</v>
+        <v>135</v>
       </c>
       <c r="F135">
-        <v>138.28700000000001</v>
+        <v>136.31</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3340,19 +3340,19 @@
         <v>4</v>
       </c>
       <c r="B136" s="1">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C136">
-        <v>131.512</v>
+        <v>133.64400000000001</v>
       </c>
       <c r="D136">
-        <v>133.857</v>
+        <v>138.821</v>
       </c>
       <c r="E136">
-        <v>131.13</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="F136">
-        <v>133.70699999999999</v>
+        <v>138.28700000000001</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3360,19 +3360,19 @@
         <v>4</v>
       </c>
       <c r="B137" s="1">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C137">
-        <v>130.77199999999999</v>
+        <v>131.512</v>
       </c>
       <c r="D137">
-        <v>132.244</v>
+        <v>133.857</v>
       </c>
       <c r="E137">
-        <v>129.185</v>
+        <v>131.13</v>
       </c>
       <c r="F137">
-        <v>131.02600000000001</v>
+        <v>133.70699999999999</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3380,19 +3380,19 @@
         <v>4</v>
       </c>
       <c r="B138" s="1">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C138">
-        <v>133.249</v>
+        <v>130.77199999999999</v>
       </c>
       <c r="D138">
-        <v>134.00399999999999</v>
+        <v>132.244</v>
       </c>
       <c r="E138">
-        <v>130.35499999999999</v>
+        <v>129.185</v>
       </c>
       <c r="F138">
-        <v>130.64500000000001</v>
+        <v>131.02600000000001</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3400,19 +3400,19 @@
         <v>4</v>
       </c>
       <c r="B139" s="1">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C139">
-        <v>135.267</v>
+        <v>133.249</v>
       </c>
       <c r="D139">
-        <v>136.25</v>
+        <v>134.00399999999999</v>
       </c>
       <c r="E139">
-        <v>132.227</v>
+        <v>130.35499999999999</v>
       </c>
       <c r="F139">
-        <v>133.03200000000001</v>
+        <v>130.64500000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3420,19 +3420,19 @@
         <v>4</v>
       </c>
       <c r="B140" s="1">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C140">
-        <v>139.34899999999999</v>
+        <v>135.267</v>
       </c>
       <c r="D140">
-        <v>140.13</v>
+        <v>136.25</v>
       </c>
       <c r="E140">
-        <v>134.92699999999999</v>
+        <v>132.227</v>
       </c>
       <c r="F140">
-        <v>135.03299999999999</v>
+        <v>133.03200000000001</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3440,19 +3440,19 @@
         <v>4</v>
       </c>
       <c r="B141" s="1">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C141">
-        <v>139.22999999999999</v>
+        <v>139.34899999999999</v>
       </c>
       <c r="D141">
-        <v>142.381</v>
+        <v>140.13</v>
       </c>
       <c r="E141">
-        <v>138.334</v>
+        <v>134.92699999999999</v>
       </c>
       <c r="F141">
-        <v>139.25800000000001</v>
+        <v>135.03299999999999</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3460,19 +3460,19 @@
         <v>4</v>
       </c>
       <c r="B142" s="1">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C142">
-        <v>130.19300000000001</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="D142">
-        <v>143.22300000000001</v>
+        <v>142.381</v>
       </c>
       <c r="E142">
-        <v>130.119</v>
+        <v>138.334</v>
       </c>
       <c r="F142">
-        <v>138.053</v>
+        <v>139.25800000000001</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3480,19 +3480,19 @@
         <v>4</v>
       </c>
       <c r="B143" s="1">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C143">
-        <v>136.297</v>
+        <v>130.19300000000001</v>
       </c>
       <c r="D143">
-        <v>136.798</v>
+        <v>143.22300000000001</v>
       </c>
       <c r="E143">
-        <v>128.78399999999999</v>
+        <v>130.119</v>
       </c>
       <c r="F143">
-        <v>130.1</v>
+        <v>138.053</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3500,19 +3500,19 @@
         <v>4</v>
       </c>
       <c r="B144" s="1">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C144">
-        <v>136.584</v>
+        <v>136.297</v>
       </c>
       <c r="D144">
-        <v>138.999</v>
+        <v>136.798</v>
       </c>
       <c r="E144">
-        <v>133.33500000000001</v>
+        <v>128.78399999999999</v>
       </c>
       <c r="F144">
-        <v>136.143</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3520,19 +3520,19 @@
         <v>4</v>
       </c>
       <c r="B145" s="1">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C145">
-        <v>151.29900000000001</v>
+        <v>136.584</v>
       </c>
       <c r="D145">
-        <v>160.09</v>
+        <v>138.999</v>
       </c>
       <c r="E145">
-        <v>133.142</v>
+        <v>133.33500000000001</v>
       </c>
       <c r="F145">
-        <v>139.941</v>
+        <v>136.143</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3540,19 +3540,19 @@
         <v>4</v>
       </c>
       <c r="B146" s="1">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C146">
-        <v>152.08000000000001</v>
+        <v>151.29900000000001</v>
       </c>
       <c r="D146">
-        <v>152.387</v>
+        <v>160.09</v>
       </c>
       <c r="E146">
-        <v>145.37700000000001</v>
+        <v>133.142</v>
       </c>
       <c r="F146">
-        <v>149.572</v>
+        <v>139.941</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3560,19 +3560,19 @@
         <v>4</v>
       </c>
       <c r="B147" s="1">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C147">
-        <v>154.154</v>
+        <v>152.08000000000001</v>
       </c>
       <c r="D147">
-        <v>157.93600000000001</v>
+        <v>152.387</v>
       </c>
       <c r="E147">
-        <v>151.49799999999999</v>
+        <v>145.37700000000001</v>
       </c>
       <c r="F147">
-        <v>152.637</v>
+        <v>149.572</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3580,19 +3580,19 @@
         <v>4</v>
       </c>
       <c r="B148" s="1">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C148">
-        <v>161.24600000000001</v>
+        <v>154.154</v>
       </c>
       <c r="D148">
-        <v>163.88</v>
+        <v>157.93600000000001</v>
       </c>
       <c r="E148">
-        <v>154.57499999999999</v>
+        <v>151.49799999999999</v>
       </c>
       <c r="F148">
-        <v>154.76400000000001</v>
+        <v>152.637</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3600,19 +3600,19 @@
         <v>4</v>
       </c>
       <c r="B149" s="1">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C149">
-        <v>159.68700000000001</v>
+        <v>161.24600000000001</v>
       </c>
       <c r="D149">
-        <v>162.50899999999999</v>
+        <v>163.88</v>
       </c>
       <c r="E149">
-        <v>158.03399999999999</v>
+        <v>154.57499999999999</v>
       </c>
       <c r="F149">
-        <v>161.215</v>
+        <v>154.76400000000001</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3620,19 +3620,19 @@
         <v>4</v>
       </c>
       <c r="B150" s="1">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C150">
-        <v>155.94900000000001</v>
+        <v>159.68700000000001</v>
       </c>
       <c r="D150">
-        <v>161.62100000000001</v>
+        <v>162.50899999999999</v>
       </c>
       <c r="E150">
-        <v>155.661</v>
+        <v>158.03399999999999</v>
       </c>
       <c r="F150">
-        <v>159.66800000000001</v>
+        <v>161.215</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3640,19 +3640,19 @@
         <v>4</v>
       </c>
       <c r="B151" s="1">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C151">
-        <v>154.53299999999999</v>
+        <v>155.94900000000001</v>
       </c>
       <c r="D151">
-        <v>158.47900000000001</v>
+        <v>161.62100000000001</v>
       </c>
       <c r="E151">
-        <v>154.386</v>
+        <v>155.661</v>
       </c>
       <c r="F151">
-        <v>156.02799999999999</v>
+        <v>159.66800000000001</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3660,19 +3660,19 @@
         <v>4</v>
       </c>
       <c r="B152" s="1">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C152">
-        <v>155.13200000000001</v>
+        <v>154.53299999999999</v>
       </c>
       <c r="D152">
-        <v>156.64400000000001</v>
+        <v>158.47900000000001</v>
       </c>
       <c r="E152">
-        <v>153.625</v>
+        <v>154.386</v>
       </c>
       <c r="F152">
-        <v>154.52500000000001</v>
+        <v>156.02799999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3680,19 +3680,19 @@
         <v>4</v>
       </c>
       <c r="B153" s="1">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C153">
-        <v>161.59800000000001</v>
+        <v>155.13200000000001</v>
       </c>
       <c r="D153">
-        <v>162.798</v>
+        <v>156.64400000000001</v>
       </c>
       <c r="E153">
-        <v>155.29300000000001</v>
+        <v>153.625</v>
       </c>
       <c r="F153">
-        <v>155.4</v>
+        <v>154.52500000000001</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3700,19 +3700,19 @@
         <v>4</v>
       </c>
       <c r="B154" s="1">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C154">
-        <v>153.46199999999999</v>
+        <v>161.59800000000001</v>
       </c>
       <c r="D154">
-        <v>161.15700000000001</v>
+        <v>162.798</v>
       </c>
       <c r="E154">
-        <v>152.501</v>
+        <v>155.29300000000001</v>
       </c>
       <c r="F154">
-        <v>161.05000000000001</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3720,19 +3720,19 @@
         <v>4</v>
       </c>
       <c r="B155" s="1">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C155">
-        <v>152.61600000000001</v>
+        <v>153.46199999999999</v>
       </c>
       <c r="D155">
-        <v>155.74199999999999</v>
+        <v>161.15700000000001</v>
       </c>
       <c r="E155">
-        <v>151.95500000000001</v>
+        <v>152.501</v>
       </c>
       <c r="F155">
-        <v>154.38499999999999</v>
+        <v>161.05000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3740,19 +3740,19 @@
         <v>4</v>
       </c>
       <c r="B156" s="1">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C156">
-        <v>158.61099999999999</v>
+        <v>152.61600000000001</v>
       </c>
       <c r="D156">
-        <v>159.572</v>
+        <v>155.74199999999999</v>
       </c>
       <c r="E156">
-        <v>151.63200000000001</v>
+        <v>151.95500000000001</v>
       </c>
       <c r="F156">
-        <v>152.67699999999999</v>
+        <v>154.38499999999999</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3760,19 +3760,19 @@
         <v>4</v>
       </c>
       <c r="B157" s="1">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C157">
-        <v>160.11600000000001</v>
+        <v>158.61099999999999</v>
       </c>
       <c r="D157">
-        <v>162.554</v>
+        <v>159.572</v>
       </c>
       <c r="E157">
-        <v>158.70099999999999</v>
+        <v>151.63200000000001</v>
       </c>
       <c r="F157">
-        <v>158.785</v>
+        <v>152.67699999999999</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3780,19 +3780,19 @@
         <v>4</v>
       </c>
       <c r="B158" s="1">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C158">
-        <v>161.21</v>
+        <v>160.11600000000001</v>
       </c>
       <c r="D158">
-        <v>161.47999999999999</v>
+        <v>162.554</v>
       </c>
       <c r="E158">
-        <v>158.43100000000001</v>
+        <v>158.70099999999999</v>
       </c>
       <c r="F158">
-        <v>159.904</v>
+        <v>158.785</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3800,19 +3800,19 @@
         <v>4</v>
       </c>
       <c r="B159" s="1">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C159">
-        <v>163.72800000000001</v>
+        <v>161.21</v>
       </c>
       <c r="D159">
-        <v>163.96799999999999</v>
+        <v>161.47999999999999</v>
       </c>
       <c r="E159">
-        <v>158.96</v>
+        <v>158.43100000000001</v>
       </c>
       <c r="F159">
-        <v>161.52500000000001</v>
+        <v>159.904</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3820,19 +3820,19 @@
         <v>4</v>
       </c>
       <c r="B160" s="1">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C160">
-        <v>161.953</v>
+        <v>163.72800000000001</v>
       </c>
       <c r="D160">
-        <v>164.08600000000001</v>
+        <v>163.96799999999999</v>
       </c>
       <c r="E160">
-        <v>159.46600000000001</v>
+        <v>158.96</v>
       </c>
       <c r="F160">
-        <v>163.62299999999999</v>
+        <v>161.52500000000001</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3840,19 +3840,19 @@
         <v>4</v>
       </c>
       <c r="B161" s="1">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C161">
-        <v>157.88800000000001</v>
+        <v>161.953</v>
       </c>
       <c r="D161">
-        <v>162.42400000000001</v>
+        <v>164.08600000000001</v>
       </c>
       <c r="E161">
-        <v>156.16300000000001</v>
+        <v>159.46600000000001</v>
       </c>
       <c r="F161">
-        <v>161.89500000000001</v>
+        <v>163.62299999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3860,19 +3860,19 @@
         <v>4</v>
       </c>
       <c r="B162" s="1">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C162">
-        <v>160.46799999999999</v>
+        <v>157.88800000000001</v>
       </c>
       <c r="D162">
-        <v>161.54</v>
+        <v>162.42400000000001</v>
       </c>
       <c r="E162">
-        <v>154.70400000000001</v>
+        <v>156.16300000000001</v>
       </c>
       <c r="F162">
-        <v>158.083</v>
+        <v>161.89500000000001</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3880,19 +3880,19 @@
         <v>4</v>
       </c>
       <c r="B163" s="1">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C163">
-        <v>164.27799999999999</v>
+        <v>160.46799999999999</v>
       </c>
       <c r="D163">
-        <v>166.07300000000001</v>
+        <v>161.54</v>
       </c>
       <c r="E163">
-        <v>160.72300000000001</v>
+        <v>154.70400000000001</v>
       </c>
       <c r="F163">
-        <v>162.005</v>
+        <v>158.083</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3900,19 +3900,19 @@
         <v>4</v>
       </c>
       <c r="B164" s="1">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C164">
-        <v>169.11500000000001</v>
+        <v>164.27799999999999</v>
       </c>
       <c r="D164">
-        <v>170.61500000000001</v>
+        <v>166.07300000000001</v>
       </c>
       <c r="E164">
-        <v>159.773</v>
+        <v>160.72300000000001</v>
       </c>
       <c r="F164">
-        <v>164.28</v>
+        <v>162.005</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3920,19 +3920,19 @@
         <v>4</v>
       </c>
       <c r="B165" s="1">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C165">
-        <v>172.82499999999999</v>
+        <v>169.11500000000001</v>
       </c>
       <c r="D165">
-        <v>174.99600000000001</v>
+        <v>170.61500000000001</v>
       </c>
       <c r="E165">
-        <v>168.97399999999999</v>
+        <v>159.773</v>
       </c>
       <c r="F165">
-        <v>169.453</v>
+        <v>164.28</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3940,19 +3940,19 @@
         <v>4</v>
       </c>
       <c r="B166" s="1">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C166">
-        <v>169.17500000000001</v>
+        <v>172.82499999999999</v>
       </c>
       <c r="D166">
-        <v>174.16200000000001</v>
+        <v>174.99600000000001</v>
       </c>
       <c r="E166">
-        <v>166.96700000000001</v>
+        <v>168.97399999999999</v>
       </c>
       <c r="F166">
-        <v>172.47</v>
+        <v>169.453</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3960,19 +3960,19 @@
         <v>4</v>
       </c>
       <c r="B167" s="1">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C167">
-        <v>166.268</v>
+        <v>169.17500000000001</v>
       </c>
       <c r="D167">
-        <v>170.34299999999999</v>
+        <v>174.16200000000001</v>
       </c>
       <c r="E167">
-        <v>163.96600000000001</v>
+        <v>166.96700000000001</v>
       </c>
       <c r="F167">
-        <v>169.37200000000001</v>
+        <v>172.47</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3980,19 +3980,19 @@
         <v>4</v>
       </c>
       <c r="B168" s="1">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C168">
-        <v>170.20500000000001</v>
+        <v>166.268</v>
       </c>
       <c r="D168">
-        <v>172.26499999999999</v>
+        <v>170.34299999999999</v>
       </c>
       <c r="E168">
-        <v>166.233</v>
+        <v>163.96600000000001</v>
       </c>
       <c r="F168">
-        <v>166.875</v>
+        <v>169.37200000000001</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4000,19 +4000,19 @@
         <v>4</v>
       </c>
       <c r="B169" s="1">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C169">
-        <v>177.01499999999999</v>
+        <v>170.20500000000001</v>
       </c>
       <c r="D169">
-        <v>177.34</v>
+        <v>172.26499999999999</v>
       </c>
       <c r="E169">
-        <v>170.47300000000001</v>
+        <v>166.233</v>
       </c>
       <c r="F169">
-        <v>170.648</v>
+        <v>166.875</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4020,19 +4020,19 @@
         <v>4</v>
       </c>
       <c r="B170" s="1">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C170">
-        <v>179.02</v>
+        <v>177.01499999999999</v>
       </c>
       <c r="D170">
-        <v>180.03100000000001</v>
+        <v>177.34</v>
       </c>
       <c r="E170">
-        <v>176.946</v>
+        <v>170.47300000000001</v>
       </c>
       <c r="F170">
-        <v>177.19</v>
+        <v>170.648</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4040,19 +4040,19 @@
         <v>4</v>
       </c>
       <c r="B171" s="1">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C171">
-        <v>180.55600000000001</v>
+        <v>179.02</v>
       </c>
       <c r="D171">
-        <v>181.21799999999999</v>
+        <v>180.03100000000001</v>
       </c>
       <c r="E171">
-        <v>178.94900000000001</v>
+        <v>176.946</v>
       </c>
       <c r="F171">
-        <v>179.27699999999999</v>
+        <v>177.19</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4060,19 +4060,19 @@
         <v>4</v>
       </c>
       <c r="B172" s="1">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C172">
-        <v>184.512</v>
+        <v>180.55600000000001</v>
       </c>
       <c r="D172">
-        <v>184.512</v>
+        <v>181.21799999999999</v>
       </c>
       <c r="E172">
-        <v>180.65100000000001</v>
+        <v>178.94900000000001</v>
       </c>
       <c r="F172">
-        <v>180.75899999999999</v>
+        <v>179.27699999999999</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4080,19 +4080,19 @@
         <v>4</v>
       </c>
       <c r="B173" s="1">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C173">
-        <v>186.04499999999999</v>
+        <v>184.512</v>
       </c>
       <c r="D173">
-        <v>186.328</v>
+        <v>184.512</v>
       </c>
       <c r="E173">
-        <v>183.37</v>
+        <v>180.65100000000001</v>
       </c>
       <c r="F173">
-        <v>184.02099999999999</v>
+        <v>180.75899999999999</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4100,19 +4100,19 @@
         <v>4</v>
       </c>
       <c r="B174" s="1">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C174">
-        <v>184.62299999999999</v>
+        <v>186.04499999999999</v>
       </c>
       <c r="D174">
-        <v>186.22399999999999</v>
+        <v>186.328</v>
       </c>
       <c r="E174">
-        <v>183.96600000000001</v>
+        <v>183.37</v>
       </c>
       <c r="F174">
-        <v>185.989</v>
+        <v>184.02099999999999</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4120,19 +4120,19 @@
         <v>4</v>
       </c>
       <c r="B175" s="1">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C175">
-        <v>186.52500000000001</v>
+        <v>184.62299999999999</v>
       </c>
       <c r="D175">
-        <v>186.959</v>
+        <v>186.22399999999999</v>
       </c>
       <c r="E175">
-        <v>184.23400000000001</v>
+        <v>183.96600000000001</v>
       </c>
       <c r="F175">
-        <v>184.684</v>
+        <v>185.989</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4140,19 +4140,19 @@
         <v>4</v>
       </c>
       <c r="B176" s="1">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C176">
-        <v>186.08799999999999</v>
+        <v>186.52500000000001</v>
       </c>
       <c r="D176">
-        <v>188.79499999999999</v>
+        <v>186.959</v>
       </c>
       <c r="E176">
-        <v>185.99</v>
+        <v>184.23400000000001</v>
       </c>
       <c r="F176">
-        <v>186.62799999999999</v>
+        <v>184.684</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4160,19 +4160,19 @@
         <v>4</v>
       </c>
       <c r="B177" s="1">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C177">
-        <v>185.49600000000001</v>
+        <v>186.08799999999999</v>
       </c>
       <c r="D177">
-        <v>187.49199999999999</v>
+        <v>188.79499999999999</v>
       </c>
       <c r="E177">
-        <v>185.363</v>
+        <v>185.99</v>
       </c>
       <c r="F177">
-        <v>186.77799999999999</v>
+        <v>186.62799999999999</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4180,19 +4180,19 @@
         <v>4</v>
       </c>
       <c r="B178" s="1">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C178">
-        <v>185.96799999999999</v>
+        <v>185.49600000000001</v>
       </c>
       <c r="D178">
-        <v>187.661</v>
+        <v>187.49199999999999</v>
       </c>
       <c r="E178">
-        <v>184.28200000000001</v>
+        <v>185.363</v>
       </c>
       <c r="F178">
-        <v>185.375</v>
+        <v>186.77799999999999</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4200,19 +4200,19 @@
         <v>4</v>
       </c>
       <c r="B179" s="1">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C179">
-        <v>185.863</v>
+        <v>185.96799999999999</v>
       </c>
       <c r="D179">
-        <v>186.71</v>
+        <v>187.661</v>
       </c>
       <c r="E179">
-        <v>183.85300000000001</v>
+        <v>184.28200000000001</v>
       </c>
       <c r="F179">
-        <v>186.10499999999999</v>
+        <v>185.375</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4220,19 +4220,19 @@
         <v>4</v>
       </c>
       <c r="B180" s="1">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C180">
-        <v>184.11699999999999</v>
+        <v>185.863</v>
       </c>
       <c r="D180">
-        <v>186.29</v>
+        <v>186.71</v>
       </c>
       <c r="E180">
-        <v>183.81899999999999</v>
+        <v>183.85300000000001</v>
       </c>
       <c r="F180">
-        <v>185.86600000000001</v>
+        <v>186.10499999999999</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4240,19 +4240,19 @@
         <v>4</v>
       </c>
       <c r="B181" s="1">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C181">
-        <v>184.07400000000001</v>
+        <v>184.11699999999999</v>
       </c>
       <c r="D181">
-        <v>184.714</v>
+        <v>186.29</v>
       </c>
       <c r="E181">
-        <v>181.82400000000001</v>
+        <v>183.81899999999999</v>
       </c>
       <c r="F181">
-        <v>184.43799999999999</v>
+        <v>185.86600000000001</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4260,19 +4260,19 @@
         <v>4</v>
       </c>
       <c r="B182" s="1">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C182">
-        <v>182.017</v>
+        <v>184.07400000000001</v>
       </c>
       <c r="D182">
-        <v>184.83500000000001</v>
+        <v>184.714</v>
       </c>
       <c r="E182">
-        <v>181.83699999999999</v>
+        <v>181.82400000000001</v>
       </c>
       <c r="F182">
-        <v>184.15799999999999</v>
+        <v>184.43799999999999</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4280,19 +4280,19 @@
         <v>4</v>
       </c>
       <c r="B183" s="1">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C183">
-        <v>183.172</v>
+        <v>182.017</v>
       </c>
       <c r="D183">
-        <v>183.29</v>
+        <v>184.83500000000001</v>
       </c>
       <c r="E183">
-        <v>180.64400000000001</v>
+        <v>181.83699999999999</v>
       </c>
       <c r="F183">
-        <v>182.02799999999999</v>
+        <v>184.15799999999999</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4300,19 +4300,19 @@
         <v>4</v>
       </c>
       <c r="B184" s="1">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C184">
-        <v>186.39099999999999</v>
+        <v>183.172</v>
       </c>
       <c r="D184">
-        <v>187.31700000000001</v>
+        <v>183.29</v>
       </c>
       <c r="E184">
-        <v>181.601</v>
+        <v>180.64400000000001</v>
       </c>
       <c r="F184">
-        <v>183.155</v>
+        <v>182.02799999999999</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4320,19 +4320,19 @@
         <v>4</v>
       </c>
       <c r="B185" s="1">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C185">
-        <v>185.94900000000001</v>
+        <v>186.39099999999999</v>
       </c>
       <c r="D185">
-        <v>188.22800000000001</v>
+        <v>187.31700000000001</v>
       </c>
       <c r="E185">
-        <v>184.20500000000001</v>
+        <v>181.601</v>
       </c>
       <c r="F185">
-        <v>186.434</v>
+        <v>183.155</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4340,19 +4340,19 @@
         <v>4</v>
       </c>
       <c r="B186" s="1">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C186">
-        <v>180.51499999999999</v>
+        <v>185.94900000000001</v>
       </c>
       <c r="D186">
-        <v>187.316</v>
+        <v>188.22800000000001</v>
       </c>
       <c r="E186">
-        <v>180.405</v>
+        <v>184.20500000000001</v>
       </c>
       <c r="F186">
-        <v>185.95500000000001</v>
+        <v>186.434</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4360,19 +4360,19 @@
         <v>4</v>
       </c>
       <c r="B187" s="1">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C187">
-        <v>187.239</v>
+        <v>180.51499999999999</v>
       </c>
       <c r="D187">
-        <v>187.27099999999999</v>
+        <v>187.316</v>
       </c>
       <c r="E187">
-        <v>180.47800000000001</v>
+        <v>180.405</v>
       </c>
       <c r="F187">
-        <v>180.56</v>
+        <v>185.95500000000001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4380,19 +4380,19 @@
         <v>4</v>
       </c>
       <c r="B188" s="1">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C188">
-        <v>191.33600000000001</v>
+        <v>187.239</v>
       </c>
       <c r="D188">
-        <v>191.405</v>
+        <v>187.27099999999999</v>
       </c>
       <c r="E188">
-        <v>183.131</v>
+        <v>180.47800000000001</v>
       </c>
       <c r="F188">
-        <v>186.87799999999999</v>
+        <v>180.56</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4400,19 +4400,19 @@
         <v>4</v>
       </c>
       <c r="B189" s="1">
-        <v>40771</v>
+        <v>40778</v>
       </c>
       <c r="C189">
-        <v>194.399</v>
+        <v>191.33600000000001</v>
       </c>
       <c r="D189">
-        <v>195.262</v>
+        <v>191.405</v>
       </c>
       <c r="E189">
-        <v>191.31299999999999</v>
+        <v>183.131</v>
       </c>
       <c r="F189">
-        <v>191.69800000000001</v>
+        <v>186.87799999999999</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4420,19 +4420,19 @@
         <v>4</v>
       </c>
       <c r="B190" s="1">
-        <v>40764</v>
+        <v>40771</v>
       </c>
       <c r="C190">
-        <v>192.298</v>
+        <v>194.399</v>
       </c>
       <c r="D190">
-        <v>195.01599999999999</v>
+        <v>195.262</v>
       </c>
       <c r="E190">
-        <v>192.298</v>
+        <v>191.31299999999999</v>
       </c>
       <c r="F190">
-        <v>194.53200000000001</v>
+        <v>191.69800000000001</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4440,19 +4440,19 @@
         <v>4</v>
       </c>
       <c r="B191" s="1">
-        <v>40757</v>
+        <v>40764</v>
       </c>
       <c r="C191">
-        <v>193.559</v>
+        <v>192.298</v>
       </c>
       <c r="D191">
-        <v>195.238</v>
+        <v>195.01599999999999</v>
       </c>
       <c r="E191">
-        <v>191.97900000000001</v>
+        <v>192.298</v>
       </c>
       <c r="F191">
-        <v>192.43600000000001</v>
+        <v>194.53200000000001</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4460,19 +4460,19 @@
         <v>4</v>
       </c>
       <c r="B192" s="1">
-        <v>40750</v>
+        <v>40757</v>
       </c>
       <c r="C192">
-        <v>191.82</v>
+        <v>193.559</v>
       </c>
       <c r="D192">
-        <v>194.57499999999999</v>
+        <v>195.238</v>
       </c>
       <c r="E192">
-        <v>190.99700000000001</v>
+        <v>191.97900000000001</v>
       </c>
       <c r="F192">
-        <v>193.49600000000001</v>
+        <v>192.43600000000001</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4480,19 +4480,19 @@
         <v>4</v>
       </c>
       <c r="B193" s="1">
-        <v>40743</v>
+        <v>40750</v>
       </c>
       <c r="C193">
-        <v>193.60300000000001</v>
+        <v>191.82</v>
       </c>
       <c r="D193">
-        <v>193.965</v>
+        <v>194.57499999999999</v>
       </c>
       <c r="E193">
-        <v>191.636</v>
+        <v>190.99700000000001</v>
       </c>
       <c r="F193">
-        <v>191.928</v>
+        <v>193.49600000000001</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4500,19 +4500,19 @@
         <v>4</v>
       </c>
       <c r="B194" s="1">
-        <v>40736</v>
+        <v>40743</v>
       </c>
       <c r="C194">
-        <v>190.119</v>
+        <v>193.60300000000001</v>
       </c>
       <c r="D194">
-        <v>194.352</v>
+        <v>193.965</v>
       </c>
       <c r="E194">
-        <v>189.76</v>
+        <v>191.636</v>
       </c>
       <c r="F194">
-        <v>193.57599999999999</v>
+        <v>191.928</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4520,19 +4520,19 @@
         <v>4</v>
       </c>
       <c r="B195" s="1">
-        <v>40729</v>
+        <v>40736</v>
       </c>
       <c r="C195">
-        <v>189.49600000000001</v>
+        <v>190.119</v>
       </c>
       <c r="D195">
-        <v>191.64400000000001</v>
+        <v>194.352</v>
       </c>
       <c r="E195">
-        <v>184.96700000000001</v>
+        <v>189.76</v>
       </c>
       <c r="F195">
-        <v>190.54599999999999</v>
+        <v>193.57599999999999</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4540,19 +4540,19 @@
         <v>4</v>
       </c>
       <c r="B196" s="1">
-        <v>40722</v>
+        <v>40729</v>
       </c>
       <c r="C196">
-        <v>192.38900000000001</v>
+        <v>189.49600000000001</v>
       </c>
       <c r="D196">
-        <v>193.52</v>
+        <v>191.64400000000001</v>
       </c>
       <c r="E196">
-        <v>190.89099999999999</v>
+        <v>184.96700000000001</v>
       </c>
       <c r="F196">
-        <v>191.16399999999999</v>
+        <v>190.54599999999999</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4560,19 +4560,19 @@
         <v>4</v>
       </c>
       <c r="B197" s="1">
-        <v>40715</v>
+        <v>40722</v>
       </c>
       <c r="C197">
-        <v>195.083</v>
+        <v>192.38900000000001</v>
       </c>
       <c r="D197">
-        <v>195.869</v>
+        <v>193.52</v>
       </c>
       <c r="E197">
-        <v>193.46899999999999</v>
+        <v>190.89099999999999</v>
       </c>
       <c r="F197">
-        <v>195.011</v>
+        <v>191.16399999999999</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4580,19 +4580,19 @@
         <v>4</v>
       </c>
       <c r="B198" s="1">
-        <v>40708</v>
+        <v>40715</v>
       </c>
       <c r="C198">
-        <v>191.68899999999999</v>
+        <v>195.083</v>
       </c>
       <c r="D198">
-        <v>195.821</v>
+        <v>195.869</v>
       </c>
       <c r="E198">
-        <v>191.398</v>
+        <v>193.46899999999999</v>
       </c>
       <c r="F198">
-        <v>194.715</v>
+        <v>195.011</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4600,19 +4600,19 @@
         <v>4</v>
       </c>
       <c r="B199" s="1">
-        <v>40701</v>
+        <v>40708</v>
       </c>
       <c r="C199">
-        <v>191.637</v>
+        <v>191.68899999999999</v>
       </c>
       <c r="D199">
-        <v>192.202</v>
+        <v>195.821</v>
       </c>
       <c r="E199">
-        <v>188.96700000000001</v>
+        <v>191.398</v>
       </c>
       <c r="F199">
-        <v>192.10300000000001</v>
+        <v>194.715</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4620,25 +4620,25 @@
         <v>4</v>
       </c>
       <c r="B200" s="1">
-        <v>40694</v>
+        <v>40701</v>
       </c>
       <c r="C200">
-        <v>189.74299999999999</v>
+        <v>191.637</v>
       </c>
       <c r="D200">
-        <v>191.94800000000001</v>
+        <v>192.202</v>
       </c>
       <c r="E200">
-        <v>188.53200000000001</v>
+        <v>188.96700000000001</v>
       </c>
       <c r="F200">
-        <v>191.78200000000001</v>
+        <v>192.10300000000001</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
